--- a/public/file/Student.xlsx
+++ b/public/file/Student.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\node\schedule\public\upload_file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610">
   <si>
     <t>王东雪</t>
   </si>
@@ -1856,11 +1851,166 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1870,22 +2020,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1893,28 +2223,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_Sheet1" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2201,21 +2831,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F600"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
-      <selection activeCell="G592" sqref="G592"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2235,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2255,7 +2885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2275,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2295,7 +2925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2315,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2335,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2355,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2375,7 +3005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2395,7 +3025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2415,7 +3045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2435,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2455,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2475,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2495,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2515,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2535,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2555,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2575,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2595,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2615,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2635,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2655,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2675,7 +3305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2695,7 +3325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2715,7 +3345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2735,7 +3365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2755,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2775,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2795,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2815,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>31</v>
       </c>
@@ -2835,7 +3465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2855,7 +3485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2875,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2895,7 +3525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2915,7 +3545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2935,7 +3565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2955,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2975,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2995,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3015,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3035,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3055,7 +3685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3075,7 +3705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3095,7 +3725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3115,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3135,7 +3765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3155,7 +3785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3175,7 +3805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3195,7 +3825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3215,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3235,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3255,7 +3885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3275,7 +3905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>55</v>
       </c>
@@ -3295,7 +3925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>56</v>
       </c>
@@ -3315,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>57</v>
       </c>
@@ -3335,7 +3965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>58</v>
       </c>
@@ -3355,7 +3985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>59</v>
       </c>
@@ -3375,7 +4005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>60</v>
       </c>
@@ -3395,7 +4025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>61</v>
       </c>
@@ -3415,7 +4045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>62</v>
       </c>
@@ -3435,7 +4065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>63</v>
       </c>
@@ -3455,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>64</v>
       </c>
@@ -3475,7 +4105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>65</v>
       </c>
@@ -3495,7 +4125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>66</v>
       </c>
@@ -3515,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>67</v>
       </c>
@@ -3535,7 +4165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>68</v>
       </c>
@@ -3555,7 +4185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>69</v>
       </c>
@@ -3575,7 +4205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>70</v>
       </c>
@@ -3595,7 +4225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>71</v>
       </c>
@@ -3615,7 +4245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>72</v>
       </c>
@@ -3635,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>73</v>
       </c>
@@ -3655,7 +4285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>74</v>
       </c>
@@ -3675,7 +4305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>75</v>
       </c>
@@ -3695,7 +4325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>76</v>
       </c>
@@ -3715,7 +4345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>77</v>
       </c>
@@ -3735,7 +4365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>78</v>
       </c>
@@ -3755,7 +4385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>79</v>
       </c>
@@ -3775,7 +4405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>80</v>
       </c>
@@ -3795,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>81</v>
       </c>
@@ -3815,7 +4445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>82</v>
       </c>
@@ -3835,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>83</v>
       </c>
@@ -3855,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>84</v>
       </c>
@@ -3875,7 +4505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>85</v>
       </c>
@@ -3895,7 +4525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>86</v>
       </c>
@@ -3915,7 +4545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>87</v>
       </c>
@@ -3935,7 +4565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>88</v>
       </c>
@@ -3955,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>89</v>
       </c>
@@ -3975,7 +4605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>90</v>
       </c>
@@ -3995,7 +4625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>91</v>
       </c>
@@ -4015,7 +4645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>92</v>
       </c>
@@ -4035,7 +4665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>93</v>
       </c>
@@ -4055,7 +4685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>94</v>
       </c>
@@ -4075,7 +4705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>95</v>
       </c>
@@ -4095,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>96</v>
       </c>
@@ -4115,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>97</v>
       </c>
@@ -4135,7 +4765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>98</v>
       </c>
@@ -4155,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>99</v>
       </c>
@@ -4175,7 +4805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>100</v>
       </c>
@@ -4195,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>101</v>
       </c>
@@ -4215,7 +4845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>103</v>
       </c>
@@ -4235,7 +4865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>104</v>
       </c>
@@ -4255,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>105</v>
       </c>
@@ -4275,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>106</v>
       </c>
@@ -4295,7 +4925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>107</v>
       </c>
@@ -4315,7 +4945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>108</v>
       </c>
@@ -4335,7 +4965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>109</v>
       </c>
@@ -4355,7 +4985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>110</v>
       </c>
@@ -4375,7 +5005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>111</v>
       </c>
@@ -4395,7 +5025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>112</v>
       </c>
@@ -4415,7 +5045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>113</v>
       </c>
@@ -4435,7 +5065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>114</v>
       </c>
@@ -4455,7 +5085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>115</v>
       </c>
@@ -4475,7 +5105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>116</v>
       </c>
@@ -4495,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>117</v>
       </c>
@@ -4515,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>118</v>
       </c>
@@ -4535,7 +5165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>119</v>
       </c>
@@ -4555,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>120</v>
       </c>
@@ -4575,7 +5205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>121</v>
       </c>
@@ -4595,7 +5225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>122</v>
       </c>
@@ -4615,7 +5245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>123</v>
       </c>
@@ -4635,7 +5265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>124</v>
       </c>
@@ -4655,7 +5285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>125</v>
       </c>
@@ -4675,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>126</v>
       </c>
@@ -4695,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>127</v>
       </c>
@@ -4715,7 +5345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>128</v>
       </c>
@@ -4735,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>129</v>
       </c>
@@ -4755,7 +5385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>130</v>
       </c>
@@ -4775,7 +5405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>131</v>
       </c>
@@ -4795,7 +5425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>132</v>
       </c>
@@ -4815,7 +5445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>133</v>
       </c>
@@ -4835,7 +5465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>134</v>
       </c>
@@ -4855,7 +5485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>135</v>
       </c>
@@ -4875,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>136</v>
       </c>
@@ -4895,7 +5525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>137</v>
       </c>
@@ -4915,7 +5545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>138</v>
       </c>
@@ -4935,7 +5565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>139</v>
       </c>
@@ -4955,7 +5585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>140</v>
       </c>
@@ -4975,7 +5605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>141</v>
       </c>
@@ -4995,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>142</v>
       </c>
@@ -5015,7 +5645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>143</v>
       </c>
@@ -5035,7 +5665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>144</v>
       </c>
@@ -5055,7 +5685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>145</v>
       </c>
@@ -5075,7 +5705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>146</v>
       </c>
@@ -5095,7 +5725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>147</v>
       </c>
@@ -5115,7 +5745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>148</v>
       </c>
@@ -5135,7 +5765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>149</v>
       </c>
@@ -5155,7 +5785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>150</v>
       </c>
@@ -5175,7 +5805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>151</v>
       </c>
@@ -5195,7 +5825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>152</v>
       </c>
@@ -5215,7 +5845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>154</v>
       </c>
@@ -5235,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>155</v>
       </c>
@@ -5255,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>156</v>
       </c>
@@ -5275,7 +5905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>157</v>
       </c>
@@ -5295,7 +5925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>158</v>
       </c>
@@ -5315,7 +5945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>159</v>
       </c>
@@ -5335,7 +5965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>160</v>
       </c>
@@ -5355,7 +5985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>161</v>
       </c>
@@ -5375,7 +6005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>162</v>
       </c>
@@ -5395,7 +6025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>163</v>
       </c>
@@ -5415,7 +6045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>164</v>
       </c>
@@ -5435,7 +6065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>165</v>
       </c>
@@ -5455,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>166</v>
       </c>
@@ -5475,7 +6105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>167</v>
       </c>
@@ -5495,7 +6125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>168</v>
       </c>
@@ -5515,7 +6145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>169</v>
       </c>
@@ -5535,7 +6165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>170</v>
       </c>
@@ -5555,7 +6185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>171</v>
       </c>
@@ -5575,7 +6205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>172</v>
       </c>
@@ -5595,7 +6225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>173</v>
       </c>
@@ -5615,7 +6245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>174</v>
       </c>
@@ -5635,7 +6265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>175</v>
       </c>
@@ -5655,7 +6285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>176</v>
       </c>
@@ -5675,7 +6305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>177</v>
       </c>
@@ -5695,7 +6325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>178</v>
       </c>
@@ -5715,7 +6345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>179</v>
       </c>
@@ -5735,7 +6365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>180</v>
       </c>
@@ -5755,7 +6385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>181</v>
       </c>
@@ -5775,7 +6405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>182</v>
       </c>
@@ -5795,7 +6425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>183</v>
       </c>
@@ -5815,7 +6445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>184</v>
       </c>
@@ -5835,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>185</v>
       </c>
@@ -5855,7 +6485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>186</v>
       </c>
@@ -5875,7 +6505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>187</v>
       </c>
@@ -5895,7 +6525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>188</v>
       </c>
@@ -5915,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>189</v>
       </c>
@@ -5935,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>190</v>
       </c>
@@ -5955,7 +6585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>191</v>
       </c>
@@ -5975,7 +6605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>192</v>
       </c>
@@ -5995,7 +6625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>193</v>
       </c>
@@ -6015,7 +6645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>194</v>
       </c>
@@ -6035,7 +6665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>195</v>
       </c>
@@ -6055,7 +6685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>196</v>
       </c>
@@ -6075,7 +6705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>197</v>
       </c>
@@ -6095,7 +6725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>198</v>
       </c>
@@ -6115,7 +6745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>199</v>
       </c>
@@ -6135,7 +6765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>200</v>
       </c>
@@ -6155,7 +6785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>201</v>
       </c>
@@ -6175,7 +6805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>202</v>
       </c>
@@ -6195,7 +6825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>203</v>
       </c>
@@ -6215,7 +6845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>205</v>
       </c>
@@ -6235,7 +6865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>206</v>
       </c>
@@ -6255,7 +6885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>207</v>
       </c>
@@ -6275,7 +6905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>208</v>
       </c>
@@ -6295,7 +6925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>209</v>
       </c>
@@ -6315,7 +6945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>210</v>
       </c>
@@ -6335,7 +6965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>211</v>
       </c>
@@ -6355,7 +6985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>212</v>
       </c>
@@ -6375,7 +7005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>213</v>
       </c>
@@ -6395,7 +7025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>214</v>
       </c>
@@ -6415,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>215</v>
       </c>
@@ -6435,7 +7065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>216</v>
       </c>
@@ -6455,7 +7085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>217</v>
       </c>
@@ -6475,7 +7105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>218</v>
       </c>
@@ -6495,7 +7125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>219</v>
       </c>
@@ -6515,7 +7145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>220</v>
       </c>
@@ -6535,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>221</v>
       </c>
@@ -6555,7 +7185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>222</v>
       </c>
@@ -6575,7 +7205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>223</v>
       </c>
@@ -6595,7 +7225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>224</v>
       </c>
@@ -6615,7 +7245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>225</v>
       </c>
@@ -6635,7 +7265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>226</v>
       </c>
@@ -6655,7 +7285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>227</v>
       </c>
@@ -6675,7 +7305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>228</v>
       </c>
@@ -6695,7 +7325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>229</v>
       </c>
@@ -6715,7 +7345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>230</v>
       </c>
@@ -6735,7 +7365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>231</v>
       </c>
@@ -6755,7 +7385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>232</v>
       </c>
@@ -6775,7 +7405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>233</v>
       </c>
@@ -6795,7 +7425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>234</v>
       </c>
@@ -6815,7 +7445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>235</v>
       </c>
@@ -6835,7 +7465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>236</v>
       </c>
@@ -6855,7 +7485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>237</v>
       </c>
@@ -6875,7 +7505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>238</v>
       </c>
@@ -6895,7 +7525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>239</v>
       </c>
@@ -6915,7 +7545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>240</v>
       </c>
@@ -6935,7 +7565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>241</v>
       </c>
@@ -6955,7 +7585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>242</v>
       </c>
@@ -6975,7 +7605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>243</v>
       </c>
@@ -6995,7 +7625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>244</v>
       </c>
@@ -7015,7 +7645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>245</v>
       </c>
@@ -7035,7 +7665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>246</v>
       </c>
@@ -7055,7 +7685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>247</v>
       </c>
@@ -7075,7 +7705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>248</v>
       </c>
@@ -7095,7 +7725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>249</v>
       </c>
@@ -7115,7 +7745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>250</v>
       </c>
@@ -7135,7 +7765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>251</v>
       </c>
@@ -7155,7 +7785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>252</v>
       </c>
@@ -7175,7 +7805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>253</v>
       </c>
@@ -7195,7 +7825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>254</v>
       </c>
@@ -7215,7 +7845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>256</v>
       </c>
@@ -7235,7 +7865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>257</v>
       </c>
@@ -7255,7 +7885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>258</v>
       </c>
@@ -7275,7 +7905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>259</v>
       </c>
@@ -7295,7 +7925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>260</v>
       </c>
@@ -7315,7 +7945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>261</v>
       </c>
@@ -7335,7 +7965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>262</v>
       </c>
@@ -7355,7 +7985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>263</v>
       </c>
@@ -7375,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>264</v>
       </c>
@@ -7395,7 +8025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>265</v>
       </c>
@@ -7415,7 +8045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>266</v>
       </c>
@@ -7435,7 +8065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>267</v>
       </c>
@@ -7455,7 +8085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>268</v>
       </c>
@@ -7475,7 +8105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>269</v>
       </c>
@@ -7495,7 +8125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>270</v>
       </c>
@@ -7515,7 +8145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>271</v>
       </c>
@@ -7535,7 +8165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>272</v>
       </c>
@@ -7555,7 +8185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>273</v>
       </c>
@@ -7575,7 +8205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>274</v>
       </c>
@@ -7595,7 +8225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>275</v>
       </c>
@@ -7615,7 +8245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>276</v>
       </c>
@@ -7635,7 +8265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>277</v>
       </c>
@@ -7655,7 +8285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>278</v>
       </c>
@@ -7675,7 +8305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>279</v>
       </c>
@@ -7695,7 +8325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>280</v>
       </c>
@@ -7715,7 +8345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>281</v>
       </c>
@@ -7735,7 +8365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>282</v>
       </c>
@@ -7755,7 +8385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>283</v>
       </c>
@@ -7775,7 +8405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>284</v>
       </c>
@@ -7795,7 +8425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>285</v>
       </c>
@@ -7815,7 +8445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>286</v>
       </c>
@@ -7835,7 +8465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>287</v>
       </c>
@@ -7855,7 +8485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>288</v>
       </c>
@@ -7875,7 +8505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>289</v>
       </c>
@@ -7895,7 +8525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>290</v>
       </c>
@@ -7915,7 +8545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>291</v>
       </c>
@@ -7935,7 +8565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>292</v>
       </c>
@@ -7955,7 +8585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>293</v>
       </c>
@@ -7975,7 +8605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>294</v>
       </c>
@@ -7995,7 +8625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>295</v>
       </c>
@@ -8015,7 +8645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>296</v>
       </c>
@@ -8035,7 +8665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>297</v>
       </c>
@@ -8055,7 +8685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>298</v>
       </c>
@@ -8075,7 +8705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>299</v>
       </c>
@@ -8095,7 +8725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>300</v>
       </c>
@@ -8115,7 +8745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>301</v>
       </c>
@@ -8135,7 +8765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>302</v>
       </c>
@@ -8155,7 +8785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>303</v>
       </c>
@@ -8175,7 +8805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>304</v>
       </c>
@@ -8195,7 +8825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>305</v>
       </c>
@@ -8215,7 +8845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>307</v>
       </c>
@@ -8235,7 +8865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>308</v>
       </c>
@@ -8255,7 +8885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>309</v>
       </c>
@@ -8275,7 +8905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>310</v>
       </c>
@@ -8295,7 +8925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>311</v>
       </c>
@@ -8315,7 +8945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>312</v>
       </c>
@@ -8335,7 +8965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>313</v>
       </c>
@@ -8355,7 +8985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>314</v>
       </c>
@@ -8375,7 +9005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>315</v>
       </c>
@@ -8395,7 +9025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>316</v>
       </c>
@@ -8415,7 +9045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>317</v>
       </c>
@@ -8435,7 +9065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>318</v>
       </c>
@@ -8455,7 +9085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>319</v>
       </c>
@@ -8475,7 +9105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>320</v>
       </c>
@@ -8495,7 +9125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>321</v>
       </c>
@@ -8515,7 +9145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>322</v>
       </c>
@@ -8535,7 +9165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>323</v>
       </c>
@@ -8555,7 +9185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>324</v>
       </c>
@@ -8575,7 +9205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>325</v>
       </c>
@@ -8595,7 +9225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>326</v>
       </c>
@@ -8615,7 +9245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>327</v>
       </c>
@@ -8635,7 +9265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>328</v>
       </c>
@@ -8655,7 +9285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>329</v>
       </c>
@@ -8675,7 +9305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>330</v>
       </c>
@@ -8695,7 +9325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>331</v>
       </c>
@@ -8715,7 +9345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>332</v>
       </c>
@@ -8735,7 +9365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>333</v>
       </c>
@@ -8755,7 +9385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>334</v>
       </c>
@@ -8775,7 +9405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>335</v>
       </c>
@@ -8795,7 +9425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>336</v>
       </c>
@@ -8815,7 +9445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>337</v>
       </c>
@@ -8835,7 +9465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>338</v>
       </c>
@@ -8855,7 +9485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>339</v>
       </c>
@@ -8875,7 +9505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>340</v>
       </c>
@@ -8895,7 +9525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>341</v>
       </c>
@@ -8915,7 +9545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>342</v>
       </c>
@@ -8935,7 +9565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>343</v>
       </c>
@@ -8955,7 +9585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>344</v>
       </c>
@@ -8975,7 +9605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>345</v>
       </c>
@@ -8995,7 +9625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>346</v>
       </c>
@@ -9015,7 +9645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>347</v>
       </c>
@@ -9035,7 +9665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>348</v>
       </c>
@@ -9055,7 +9685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>349</v>
       </c>
@@ -9075,7 +9705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>350</v>
       </c>
@@ -9095,7 +9725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>351</v>
       </c>
@@ -9115,7 +9745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>352</v>
       </c>
@@ -9135,7 +9765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>353</v>
       </c>
@@ -9155,7 +9785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>354</v>
       </c>
@@ -9175,7 +9805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>355</v>
       </c>
@@ -9195,7 +9825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>356</v>
       </c>
@@ -9215,7 +9845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>358</v>
       </c>
@@ -9235,7 +9865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>359</v>
       </c>
@@ -9255,7 +9885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>360</v>
       </c>
@@ -9275,7 +9905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>361</v>
       </c>
@@ -9295,7 +9925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>362</v>
       </c>
@@ -9315,7 +9945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6">
       <c r="A356">
         <v>363</v>
       </c>
@@ -9335,7 +9965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6">
       <c r="A357">
         <v>364</v>
       </c>
@@ -9355,7 +9985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6">
       <c r="A358">
         <v>365</v>
       </c>
@@ -9375,7 +10005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6">
       <c r="A359">
         <v>366</v>
       </c>
@@ -9395,7 +10025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6">
       <c r="A360">
         <v>367</v>
       </c>
@@ -9415,7 +10045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6">
       <c r="A361">
         <v>368</v>
       </c>
@@ -9435,7 +10065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6">
       <c r="A362">
         <v>369</v>
       </c>
@@ -9455,7 +10085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6">
       <c r="A363">
         <v>370</v>
       </c>
@@ -9475,7 +10105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6">
       <c r="A364">
         <v>371</v>
       </c>
@@ -9495,7 +10125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6">
       <c r="A365">
         <v>372</v>
       </c>
@@ -9515,7 +10145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6">
       <c r="A366">
         <v>373</v>
       </c>
@@ -9535,7 +10165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6">
       <c r="A367">
         <v>374</v>
       </c>
@@ -9555,7 +10185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6">
       <c r="A368">
         <v>375</v>
       </c>
@@ -9575,7 +10205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6">
       <c r="A369">
         <v>376</v>
       </c>
@@ -9595,7 +10225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6">
       <c r="A370">
         <v>377</v>
       </c>
@@ -9615,7 +10245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6">
       <c r="A371">
         <v>378</v>
       </c>
@@ -9635,7 +10265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6">
       <c r="A372">
         <v>379</v>
       </c>
@@ -9655,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6">
       <c r="A373">
         <v>380</v>
       </c>
@@ -9675,7 +10305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6">
       <c r="A374">
         <v>381</v>
       </c>
@@ -9695,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6">
       <c r="A375">
         <v>382</v>
       </c>
@@ -9715,7 +10345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6">
       <c r="A376">
         <v>383</v>
       </c>
@@ -9735,7 +10365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6">
       <c r="A377">
         <v>384</v>
       </c>
@@ -9755,7 +10385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6">
       <c r="A378">
         <v>385</v>
       </c>
@@ -9775,7 +10405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6">
       <c r="A379">
         <v>386</v>
       </c>
@@ -9795,7 +10425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6">
       <c r="A380">
         <v>387</v>
       </c>
@@ -9815,7 +10445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6">
       <c r="A381">
         <v>388</v>
       </c>
@@ -9835,7 +10465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6">
       <c r="A382">
         <v>389</v>
       </c>
@@ -9855,7 +10485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6">
       <c r="A383">
         <v>390</v>
       </c>
@@ -9875,7 +10505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6">
       <c r="A384">
         <v>391</v>
       </c>
@@ -9895,7 +10525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>392</v>
       </c>
@@ -9915,7 +10545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6">
       <c r="A386">
         <v>393</v>
       </c>
@@ -9935,7 +10565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6">
       <c r="A387">
         <v>394</v>
       </c>
@@ -9955,7 +10585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6">
       <c r="A388">
         <v>395</v>
       </c>
@@ -9975,7 +10605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6">
       <c r="A389">
         <v>396</v>
       </c>
@@ -9995,7 +10625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6">
       <c r="A390">
         <v>397</v>
       </c>
@@ -10015,7 +10645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6">
       <c r="A391">
         <v>398</v>
       </c>
@@ -10035,7 +10665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6">
       <c r="A392">
         <v>399</v>
       </c>
@@ -10055,7 +10685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6">
       <c r="A393">
         <v>400</v>
       </c>
@@ -10075,7 +10705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6">
       <c r="A394">
         <v>401</v>
       </c>
@@ -10095,7 +10725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6">
       <c r="A395">
         <v>402</v>
       </c>
@@ -10115,7 +10745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6">
       <c r="A396">
         <v>403</v>
       </c>
@@ -10135,7 +10765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6">
       <c r="A397">
         <v>404</v>
       </c>
@@ -10155,7 +10785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6">
       <c r="A398">
         <v>405</v>
       </c>
@@ -10175,7 +10805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6">
       <c r="A399">
         <v>406</v>
       </c>
@@ -10195,7 +10825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6">
       <c r="A400">
         <v>407</v>
       </c>
@@ -10215,7 +10845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6">
       <c r="A401">
         <v>409</v>
       </c>
@@ -10235,7 +10865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6">
       <c r="A402">
         <v>410</v>
       </c>
@@ -10255,7 +10885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6">
       <c r="A403">
         <v>411</v>
       </c>
@@ -10275,7 +10905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6">
       <c r="A404">
         <v>412</v>
       </c>
@@ -10295,7 +10925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6">
       <c r="A405">
         <v>413</v>
       </c>
@@ -10315,7 +10945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6">
       <c r="A406">
         <v>414</v>
       </c>
@@ -10335,7 +10965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6">
       <c r="A407">
         <v>415</v>
       </c>
@@ -10355,7 +10985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6">
       <c r="A408">
         <v>416</v>
       </c>
@@ -10375,7 +11005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6">
       <c r="A409">
         <v>417</v>
       </c>
@@ -10395,7 +11025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6">
       <c r="A410">
         <v>418</v>
       </c>
@@ -10415,7 +11045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6">
       <c r="A411">
         <v>419</v>
       </c>
@@ -10435,7 +11065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6">
       <c r="A412">
         <v>420</v>
       </c>
@@ -10455,7 +11085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6">
       <c r="A413">
         <v>421</v>
       </c>
@@ -10475,7 +11105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6">
       <c r="A414">
         <v>422</v>
       </c>
@@ -10495,7 +11125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6">
       <c r="A415">
         <v>423</v>
       </c>
@@ -10515,7 +11145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6">
       <c r="A416">
         <v>424</v>
       </c>
@@ -10535,7 +11165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6">
       <c r="A417">
         <v>425</v>
       </c>
@@ -10555,7 +11185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6">
       <c r="A418">
         <v>426</v>
       </c>
@@ -10575,7 +11205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6">
       <c r="A419">
         <v>427</v>
       </c>
@@ -10595,7 +11225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6">
       <c r="A420">
         <v>428</v>
       </c>
@@ -10615,7 +11245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6">
       <c r="A421">
         <v>429</v>
       </c>
@@ -10635,7 +11265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6">
       <c r="A422">
         <v>430</v>
       </c>
@@ -10655,7 +11285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6">
       <c r="A423">
         <v>431</v>
       </c>
@@ -10675,7 +11305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6">
       <c r="A424">
         <v>432</v>
       </c>
@@ -10695,7 +11325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6">
       <c r="A425">
         <v>433</v>
       </c>
@@ -10715,7 +11345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6">
       <c r="A426">
         <v>434</v>
       </c>
@@ -10735,7 +11365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6">
       <c r="A427">
         <v>435</v>
       </c>
@@ -10755,7 +11385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6">
       <c r="A428">
         <v>436</v>
       </c>
@@ -10775,7 +11405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6">
       <c r="A429">
         <v>437</v>
       </c>
@@ -10795,7 +11425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6">
       <c r="A430">
         <v>438</v>
       </c>
@@ -10815,7 +11445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6">
       <c r="A431">
         <v>439</v>
       </c>
@@ -10835,7 +11465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6">
       <c r="A432">
         <v>440</v>
       </c>
@@ -10855,7 +11485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6">
       <c r="A433">
         <v>441</v>
       </c>
@@ -10875,7 +11505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6">
       <c r="A434">
         <v>442</v>
       </c>
@@ -10895,7 +11525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6">
       <c r="A435">
         <v>443</v>
       </c>
@@ -10915,7 +11545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6">
       <c r="A436">
         <v>444</v>
       </c>
@@ -10935,7 +11565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6">
       <c r="A437">
         <v>445</v>
       </c>
@@ -10955,7 +11585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6">
       <c r="A438">
         <v>446</v>
       </c>
@@ -10975,7 +11605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6">
       <c r="A439">
         <v>447</v>
       </c>
@@ -10995,7 +11625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6">
       <c r="A440">
         <v>448</v>
       </c>
@@ -11015,7 +11645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6">
       <c r="A441">
         <v>449</v>
       </c>
@@ -11035,7 +11665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6">
       <c r="A442">
         <v>450</v>
       </c>
@@ -11055,7 +11685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6">
       <c r="A443">
         <v>451</v>
       </c>
@@ -11075,7 +11705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6">
       <c r="A444">
         <v>452</v>
       </c>
@@ -11095,7 +11725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6">
       <c r="A445">
         <v>453</v>
       </c>
@@ -11115,7 +11745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6">
       <c r="A446">
         <v>454</v>
       </c>
@@ -11135,7 +11765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6">
       <c r="A447">
         <v>455</v>
       </c>
@@ -11155,7 +11785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6">
       <c r="A448">
         <v>456</v>
       </c>
@@ -11175,7 +11805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6">
       <c r="A449">
         <v>457</v>
       </c>
@@ -11195,7 +11825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6">
       <c r="A450">
         <v>458</v>
       </c>
@@ -11215,7 +11845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6">
       <c r="A451">
         <v>460</v>
       </c>
@@ -11235,7 +11865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6">
       <c r="A452">
         <v>461</v>
       </c>
@@ -11255,7 +11885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6">
       <c r="A453">
         <v>462</v>
       </c>
@@ -11275,7 +11905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6">
       <c r="A454">
         <v>463</v>
       </c>
@@ -11295,7 +11925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6">
       <c r="A455">
         <v>464</v>
       </c>
@@ -11315,7 +11945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6">
       <c r="A456">
         <v>465</v>
       </c>
@@ -11335,7 +11965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6">
       <c r="A457">
         <v>466</v>
       </c>
@@ -11355,7 +11985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6">
       <c r="A458">
         <v>467</v>
       </c>
@@ -11375,7 +12005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6">
       <c r="A459">
         <v>468</v>
       </c>
@@ -11395,7 +12025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6">
       <c r="A460">
         <v>469</v>
       </c>
@@ -11415,7 +12045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6">
       <c r="A461">
         <v>470</v>
       </c>
@@ -11435,7 +12065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6">
       <c r="A462">
         <v>471</v>
       </c>
@@ -11455,7 +12085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6">
       <c r="A463">
         <v>472</v>
       </c>
@@ -11475,7 +12105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6">
       <c r="A464">
         <v>473</v>
       </c>
@@ -11495,7 +12125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6">
       <c r="A465">
         <v>474</v>
       </c>
@@ -11515,7 +12145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6">
       <c r="A466">
         <v>475</v>
       </c>
@@ -11535,7 +12165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6">
       <c r="A467">
         <v>476</v>
       </c>
@@ -11555,7 +12185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6">
       <c r="A468">
         <v>477</v>
       </c>
@@ -11575,7 +12205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6">
       <c r="A469">
         <v>478</v>
       </c>
@@ -11595,7 +12225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6">
       <c r="A470">
         <v>479</v>
       </c>
@@ -11615,7 +12245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6">
       <c r="A471">
         <v>480</v>
       </c>
@@ -11635,7 +12265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6">
       <c r="A472">
         <v>481</v>
       </c>
@@ -11655,7 +12285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6">
       <c r="A473">
         <v>482</v>
       </c>
@@ -11675,7 +12305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6">
       <c r="A474">
         <v>483</v>
       </c>
@@ -11695,7 +12325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6">
       <c r="A475">
         <v>484</v>
       </c>
@@ -11715,7 +12345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6">
       <c r="A476">
         <v>485</v>
       </c>
@@ -11735,7 +12365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6">
       <c r="A477">
         <v>486</v>
       </c>
@@ -11755,7 +12385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6">
       <c r="A478">
         <v>487</v>
       </c>
@@ -11775,7 +12405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6">
       <c r="A479">
         <v>488</v>
       </c>
@@ -11795,7 +12425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6">
       <c r="A480">
         <v>489</v>
       </c>
@@ -11815,7 +12445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6">
       <c r="A481">
         <v>490</v>
       </c>
@@ -11835,7 +12465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6">
       <c r="A482">
         <v>491</v>
       </c>
@@ -11855,7 +12485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6">
       <c r="A483">
         <v>492</v>
       </c>
@@ -11875,7 +12505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6">
       <c r="A484">
         <v>493</v>
       </c>
@@ -11895,7 +12525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6">
       <c r="A485">
         <v>494</v>
       </c>
@@ -11915,7 +12545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6">
       <c r="A486">
         <v>495</v>
       </c>
@@ -11935,7 +12565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6">
       <c r="A487">
         <v>496</v>
       </c>
@@ -11955,7 +12585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6">
       <c r="A488">
         <v>497</v>
       </c>
@@ -11975,7 +12605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6">
       <c r="A489">
         <v>498</v>
       </c>
@@ -11995,7 +12625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6">
       <c r="A490">
         <v>499</v>
       </c>
@@ -12015,7 +12645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6">
       <c r="A491">
         <v>500</v>
       </c>
@@ -12035,7 +12665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6">
       <c r="A492">
         <v>501</v>
       </c>
@@ -12055,7 +12685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6">
       <c r="A493">
         <v>502</v>
       </c>
@@ -12075,7 +12705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6">
       <c r="A494">
         <v>503</v>
       </c>
@@ -12095,7 +12725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6">
       <c r="A495">
         <v>504</v>
       </c>
@@ -12115,7 +12745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6">
       <c r="A496">
         <v>505</v>
       </c>
@@ -12135,7 +12765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6">
       <c r="A497">
         <v>506</v>
       </c>
@@ -12155,7 +12785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6">
       <c r="A498">
         <v>507</v>
       </c>
@@ -12175,7 +12805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6">
       <c r="A499">
         <v>508</v>
       </c>
@@ -12195,7 +12825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6">
       <c r="A500">
         <v>509</v>
       </c>
@@ -12215,7 +12845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:6">
       <c r="A501">
         <v>511</v>
       </c>
@@ -12235,7 +12865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:6">
       <c r="A502">
         <v>512</v>
       </c>
@@ -12255,7 +12885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:6">
       <c r="A503">
         <v>513</v>
       </c>
@@ -12275,7 +12905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:6">
       <c r="A504">
         <v>514</v>
       </c>
@@ -12295,7 +12925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:6">
       <c r="A505">
         <v>515</v>
       </c>
@@ -12315,7 +12945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:6">
       <c r="A506">
         <v>516</v>
       </c>
@@ -12335,7 +12965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:6">
       <c r="A507">
         <v>517</v>
       </c>
@@ -12355,7 +12985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:6">
       <c r="A508">
         <v>518</v>
       </c>
@@ -12375,7 +13005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:6">
       <c r="A509">
         <v>519</v>
       </c>
@@ -12395,7 +13025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:6">
       <c r="A510">
         <v>520</v>
       </c>
@@ -12415,7 +13045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:6">
       <c r="A511">
         <v>521</v>
       </c>
@@ -12435,7 +13065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:6">
       <c r="A512">
         <v>522</v>
       </c>
@@ -12455,7 +13085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6">
       <c r="A513">
         <v>523</v>
       </c>
@@ -12475,7 +13105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6">
       <c r="A514">
         <v>524</v>
       </c>
@@ -12495,7 +13125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6">
       <c r="A515">
         <v>525</v>
       </c>
@@ -12515,7 +13145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6">
       <c r="A516">
         <v>526</v>
       </c>
@@ -12535,7 +13165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6">
       <c r="A517">
         <v>527</v>
       </c>
@@ -12555,7 +13185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6">
       <c r="A518">
         <v>528</v>
       </c>
@@ -12575,7 +13205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6">
       <c r="A519">
         <v>529</v>
       </c>
@@ -12595,7 +13225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6">
       <c r="A520">
         <v>530</v>
       </c>
@@ -12615,7 +13245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6">
       <c r="A521">
         <v>531</v>
       </c>
@@ -12635,7 +13265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6">
       <c r="A522">
         <v>532</v>
       </c>
@@ -12655,7 +13285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6">
       <c r="A523">
         <v>533</v>
       </c>
@@ -12675,7 +13305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6">
       <c r="A524">
         <v>534</v>
       </c>
@@ -12695,7 +13325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6">
       <c r="A525">
         <v>535</v>
       </c>
@@ -12715,7 +13345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6">
       <c r="A526">
         <v>536</v>
       </c>
@@ -12735,7 +13365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6">
       <c r="A527">
         <v>537</v>
       </c>
@@ -12755,7 +13385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6">
       <c r="A528">
         <v>538</v>
       </c>
@@ -12775,7 +13405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6">
       <c r="A529">
         <v>539</v>
       </c>
@@ -12795,7 +13425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6">
       <c r="A530">
         <v>540</v>
       </c>
@@ -12815,7 +13445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6">
       <c r="A531">
         <v>541</v>
       </c>
@@ -12835,7 +13465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6">
       <c r="A532">
         <v>542</v>
       </c>
@@ -12855,7 +13485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6">
       <c r="A533">
         <v>543</v>
       </c>
@@ -12875,7 +13505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6">
       <c r="A534">
         <v>544</v>
       </c>
@@ -12895,7 +13525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6">
       <c r="A535">
         <v>545</v>
       </c>
@@ -12915,7 +13545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6">
       <c r="A536">
         <v>546</v>
       </c>
@@ -12935,7 +13565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6">
       <c r="A537">
         <v>547</v>
       </c>
@@ -12955,7 +13585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6">
       <c r="A538">
         <v>548</v>
       </c>
@@ -12975,7 +13605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6">
       <c r="A539">
         <v>549</v>
       </c>
@@ -12995,7 +13625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6">
       <c r="A540">
         <v>550</v>
       </c>
@@ -13015,7 +13645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6">
       <c r="A541">
         <v>551</v>
       </c>
@@ -13035,7 +13665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6">
       <c r="A542">
         <v>552</v>
       </c>
@@ -13055,7 +13685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6">
       <c r="A543">
         <v>553</v>
       </c>
@@ -13075,7 +13705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6">
       <c r="A544">
         <v>554</v>
       </c>
@@ -13095,7 +13725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6">
       <c r="A545">
         <v>555</v>
       </c>
@@ -13115,7 +13745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6">
       <c r="A546">
         <v>556</v>
       </c>
@@ -13135,7 +13765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6">
       <c r="A547">
         <v>557</v>
       </c>
@@ -13155,7 +13785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6">
       <c r="A548">
         <v>558</v>
       </c>
@@ -13175,7 +13805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6">
       <c r="A549">
         <v>559</v>
       </c>
@@ -13195,7 +13825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6">
       <c r="A550">
         <v>560</v>
       </c>
@@ -13215,7 +13845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6">
       <c r="A551">
         <v>562</v>
       </c>
@@ -13235,7 +13865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6">
       <c r="A552">
         <v>563</v>
       </c>
@@ -13255,7 +13885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6">
       <c r="A553">
         <v>564</v>
       </c>
@@ -13275,7 +13905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6">
       <c r="A554">
         <v>565</v>
       </c>
@@ -13295,7 +13925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6">
       <c r="A555">
         <v>566</v>
       </c>
@@ -13315,7 +13945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6">
       <c r="A556">
         <v>567</v>
       </c>
@@ -13335,7 +13965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6">
       <c r="A557">
         <v>568</v>
       </c>
@@ -13355,7 +13985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6">
       <c r="A558">
         <v>569</v>
       </c>
@@ -13375,7 +14005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6">
       <c r="A559">
         <v>570</v>
       </c>
@@ -13395,7 +14025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6">
       <c r="A560">
         <v>571</v>
       </c>
@@ -13415,7 +14045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6">
       <c r="A561">
         <v>572</v>
       </c>
@@ -13435,7 +14065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6">
       <c r="A562">
         <v>573</v>
       </c>
@@ -13455,7 +14085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6">
       <c r="A563">
         <v>574</v>
       </c>
@@ -13475,7 +14105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6">
       <c r="A564">
         <v>575</v>
       </c>
@@ -13495,7 +14125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6">
       <c r="A565">
         <v>576</v>
       </c>
@@ -13515,7 +14145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6">
       <c r="A566">
         <v>577</v>
       </c>
@@ -13535,7 +14165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6">
       <c r="A567">
         <v>578</v>
       </c>
@@ -13555,7 +14185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:6">
       <c r="A568">
         <v>579</v>
       </c>
@@ -13575,7 +14205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6">
       <c r="A569">
         <v>580</v>
       </c>
@@ -13595,7 +14225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:6">
       <c r="A570">
         <v>581</v>
       </c>
@@ -13615,7 +14245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:6">
       <c r="A571">
         <v>582</v>
       </c>
@@ -13635,7 +14265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6">
       <c r="A572">
         <v>583</v>
       </c>
@@ -13655,7 +14285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6">
       <c r="A573">
         <v>584</v>
       </c>
@@ -13675,7 +14305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6">
       <c r="A574">
         <v>585</v>
       </c>
@@ -13695,7 +14325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6">
       <c r="A575">
         <v>586</v>
       </c>
@@ -13715,7 +14345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:6">
       <c r="A576">
         <v>587</v>
       </c>
@@ -13735,7 +14365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6">
       <c r="A577">
         <v>588</v>
       </c>
@@ -13755,7 +14385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6">
       <c r="A578">
         <v>589</v>
       </c>
@@ -13775,7 +14405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6">
       <c r="A579">
         <v>590</v>
       </c>
@@ -13795,7 +14425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6">
       <c r="A580">
         <v>591</v>
       </c>
@@ -13815,7 +14445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6">
       <c r="A581">
         <v>592</v>
       </c>
@@ -13835,7 +14465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6">
       <c r="A582">
         <v>593</v>
       </c>
@@ -13855,7 +14485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6">
       <c r="A583">
         <v>594</v>
       </c>
@@ -13875,7 +14505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6">
       <c r="A584">
         <v>595</v>
       </c>
@@ -13895,7 +14525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6">
       <c r="A585">
         <v>596</v>
       </c>
@@ -13915,7 +14545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:6">
       <c r="A586">
         <v>597</v>
       </c>
@@ -13935,7 +14565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:6">
       <c r="A587">
         <v>598</v>
       </c>
@@ -13955,7 +14585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:6">
       <c r="A588">
         <v>599</v>
       </c>
@@ -13975,7 +14605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6">
       <c r="A589">
         <v>600</v>
       </c>
@@ -13995,7 +14625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6">
       <c r="A590">
         <v>601</v>
       </c>
@@ -14015,7 +14645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6">
       <c r="A591">
         <v>602</v>
       </c>
@@ -14035,7 +14665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6">
       <c r="A592">
         <v>603</v>
       </c>
@@ -14055,7 +14685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:6">
       <c r="A593">
         <v>604</v>
       </c>
@@ -14075,7 +14705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:6">
       <c r="A594">
         <v>605</v>
       </c>
@@ -14095,7 +14725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:6">
       <c r="A595">
         <v>606</v>
       </c>
@@ -14115,7 +14745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:6">
       <c r="A596">
         <v>607</v>
       </c>
@@ -14135,7 +14765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:6">
       <c r="A597">
         <v>608</v>
       </c>
@@ -14155,7 +14785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:6">
       <c r="A598">
         <v>609</v>
       </c>
@@ -14175,7 +14805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:6">
       <c r="A599">
         <v>610</v>
       </c>
@@ -14195,7 +14825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:6">
       <c r="A600">
         <v>611</v>
       </c>
@@ -14215,37 +14845,73 @@
         <v>3</v>
       </c>
     </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" spans="2:2">
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" spans="2:2">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" spans="2:2">
+      <c r="B605" s="2"/>
+    </row>
+    <row r="606" spans="2:2">
+      <c r="B606" s="3"/>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" s="1"/>
+    </row>
+    <row r="608" spans="2:2">
+      <c r="B608" s="1"/>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" s="1"/>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/file/Student.xlsx
+++ b/public/file/Student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19185" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,25 @@
     <t>一班</t>
   </si>
   <si>
-    <t>biology</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>politics</t>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>政治</t>
   </si>
   <si>
     <t>董美</t>
   </si>
   <si>
-    <t>physics</t>
+    <t>物理</t>
   </si>
   <si>
     <t>刘晶瑶</t>
   </si>
   <si>
-    <t>chemistry</t>
+    <t>化学</t>
   </si>
   <si>
     <t>魏欣彤</t>
@@ -63,7 +63,7 @@
     <t>王书新</t>
   </si>
   <si>
-    <t>geography</t>
+    <t>地理</t>
   </si>
   <si>
     <t>马丽</t>
@@ -1854,9 +1854,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1880,38 +1880,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1925,22 +1909,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1961,6 +1930,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1969,42 +1974,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2016,9 +1997,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2030,19 +2030,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,7 +2162,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,145 +2210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2226,9 +2226,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,6 +2274,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2268,30 +2303,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2310,17 +2321,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2329,10 +2329,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2341,136 +2341,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2840,7 +2840,7 @@
   <dimension ref="A1:F610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/public/file/Student.xlsx
+++ b/public/file/Student.xlsx
@@ -1747,13 +1747,13 @@
         <v>226</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2035,13 +2035,13 @@
         <v>234</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -3827,13 +3827,13 @@
         <v>181</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -4755,13 +4755,13 @@
         <v>234</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4979,13 +4979,13 @@
         <v>204</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -6163,13 +6163,13 @@
         <v>237</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -8947,13 +8947,13 @@
         <v>262</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9267,13 +9267,13 @@
         <v>222</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J278">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279">
@@ -10707,13 +10707,13 @@
         <v>295</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J323">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11059,13 +11059,13 @@
         <v>224</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J334">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335">
@@ -12307,13 +12307,13 @@
         <v>291</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -12979,13 +12979,13 @@
         <v>274</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -13523,13 +13523,13 @@
         <v>255</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I411">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J411">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -14963,13 +14963,13 @@
         <v>245</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I456">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J456">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457">
@@ -15219,13 +15219,13 @@
         <v>255</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I464">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J464">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -16819,13 +16819,13 @@
         <v>179</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I514">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J514">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="515">
@@ -17331,13 +17331,13 @@
         <v>238</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J530">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -17427,13 +17427,13 @@
         <v>259</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -18035,13 +18035,13 @@
         <v>254</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I552">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J552">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -19539,13 +19539,13 @@
         <v>260</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I599">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J599">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600">

--- a/public/file/Student.xlsx
+++ b/public/file/Student.xlsx
@@ -915,13 +915,13 @@
         <v>127</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1107,13 +1107,13 @@
         <v>286</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1203,13 +1203,13 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1747,13 +1747,13 @@
         <v>226</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1907,13 +1907,13 @@
         <v>136</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2035,13 +2035,13 @@
         <v>234</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2707,13 +2707,13 @@
         <v>210</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3283,13 +3283,13 @@
         <v>222</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3603,13 +3603,13 @@
         <v>231</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3763,13 +3763,13 @@
         <v>203</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3827,13 +3827,13 @@
         <v>181</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4467,13 +4467,13 @@
         <v>217</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4595,13 +4595,13 @@
         <v>103</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4755,13 +4755,13 @@
         <v>234</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4851,13 +4851,13 @@
         <v>273</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4979,13 +4979,13 @@
         <v>204</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6163,13 +6163,13 @@
         <v>237</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J181">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -6291,13 +6291,13 @@
         <v>294</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -6739,13 +6739,13 @@
         <v>137</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7315,13 +7315,13 @@
         <v>238</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -8563,13 +8563,13 @@
         <v>239</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -8947,13 +8947,13 @@
         <v>262</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -9075,13 +9075,13 @@
         <v>120</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -9171,13 +9171,13 @@
         <v>236</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -9267,13 +9267,13 @@
         <v>222</v>
       </c>
       <c r="H278">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J278">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -9779,13 +9779,13 @@
         <v>288</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -10099,13 +10099,13 @@
         <v>247</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -10163,13 +10163,13 @@
         <v>157</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -10707,13 +10707,13 @@
         <v>295</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J323">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -11059,13 +11059,13 @@
         <v>224</v>
       </c>
       <c r="H334">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J334">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -12243,13 +12243,13 @@
         <v>273</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -12307,13 +12307,13 @@
         <v>291</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -12787,13 +12787,13 @@
         <v>184</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -12979,13 +12979,13 @@
         <v>274</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -13011,13 +13011,13 @@
         <v>143</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -13267,13 +13267,13 @@
         <v>124</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -13523,13 +13523,13 @@
         <v>255</v>
       </c>
       <c r="H411">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I411">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J411">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -13555,13 +13555,13 @@
         <v>120</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -14227,13 +14227,13 @@
         <v>209</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -14419,13 +14419,13 @@
         <v>171</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -14963,13 +14963,13 @@
         <v>245</v>
       </c>
       <c r="H456">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I456">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J456">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -15219,13 +15219,13 @@
         <v>255</v>
       </c>
       <c r="H464">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I464">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J464">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -15923,13 +15923,13 @@
         <v>117</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -16147,13 +16147,13 @@
         <v>211</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -16819,13 +16819,13 @@
         <v>179</v>
       </c>
       <c r="H514">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I514">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J514">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -16979,13 +16979,13 @@
         <v>210</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -17331,13 +17331,13 @@
         <v>238</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J530">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -17427,13 +17427,13 @@
         <v>259</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -18035,13 +18035,13 @@
         <v>254</v>
       </c>
       <c r="H552">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I552">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J552">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -18163,13 +18163,13 @@
         <v>141</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -18579,13 +18579,13 @@
         <v>246</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -18867,13 +18867,13 @@
         <v>189</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -18963,13 +18963,13 @@
         <v>297</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -19539,13 +19539,13 @@
         <v>260</v>
       </c>
       <c r="H599">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I599">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J599">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">

--- a/public/file/Student.xlsx
+++ b/public/file/Student.xlsx
@@ -403,13 +403,13 @@
         <v>257</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -499,13 +499,13 @@
         <v>286</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -915,13 +915,13 @@
         <v>127</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1107,13 +1107,13 @@
         <v>286</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1203,13 +1203,13 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1683,13 +1683,13 @@
         <v>286</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1907,13 +1907,13 @@
         <v>136</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2707,13 +2707,13 @@
         <v>210</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3283,13 +3283,13 @@
         <v>222</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3603,13 +3603,13 @@
         <v>231</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3763,13 +3763,13 @@
         <v>203</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4467,13 +4467,13 @@
         <v>217</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4595,13 +4595,13 @@
         <v>103</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4851,13 +4851,13 @@
         <v>273</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -6259,13 +6259,13 @@
         <v>278</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6291,13 +6291,13 @@
         <v>294</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6739,13 +6739,13 @@
         <v>137</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6931,13 +6931,13 @@
         <v>240</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -7315,13 +7315,13 @@
         <v>238</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -8563,13 +8563,13 @@
         <v>239</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -9011,13 +9011,13 @@
         <v>254</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -9075,13 +9075,13 @@
         <v>120</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -9171,13 +9171,13 @@
         <v>236</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -9779,13 +9779,13 @@
         <v>288</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -10099,13 +10099,13 @@
         <v>247</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -10163,13 +10163,13 @@
         <v>157</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -10963,13 +10963,13 @@
         <v>287</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -11827,13 +11827,13 @@
         <v>299</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -12243,13 +12243,13 @@
         <v>273</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -12787,13 +12787,13 @@
         <v>184</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -13011,13 +13011,13 @@
         <v>143</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -13267,13 +13267,13 @@
         <v>124</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -13555,13 +13555,13 @@
         <v>120</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -13587,13 +13587,13 @@
         <v>223</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -14227,13 +14227,13 @@
         <v>209</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -14419,13 +14419,13 @@
         <v>171</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -14643,13 +14643,13 @@
         <v>259</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -15923,13 +15923,13 @@
         <v>117</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -16147,13 +16147,13 @@
         <v>211</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -16979,13 +16979,13 @@
         <v>210</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -18163,13 +18163,13 @@
         <v>141</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -18579,13 +18579,13 @@
         <v>246</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -18867,13 +18867,13 @@
         <v>189</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -18963,13 +18963,13 @@
         <v>297</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
